--- a/biology/Zoologie/Aonyx_capensis_congicus/Aonyx_capensis_congicus.xlsx
+++ b/biology/Zoologie/Aonyx_capensis_congicus/Aonyx_capensis_congicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La loutre du Congo (Aonyx capensis congicus, synonyme : Aonyx congicus Lönnberg, 1910), aussi appelée loutre à joues blanches du Congo[1], loutre à joues blanches du Cameroun ou encore paraonyx tacheté[2], est une sous-espèce de loutres africaines. On la trouve uniquement dans les zones humides d'Afrique centrale. C'est une sous-espèce de Aonyx capensis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loutre du Congo (Aonyx capensis congicus, synonyme : Aonyx congicus Lönnberg, 1910), aussi appelée loutre à joues blanches du Congo, loutre à joues blanches du Cameroun ou encore paraonyx tacheté, est une sous-espèce de loutres africaines. On la trouve uniquement dans les zones humides d'Afrique centrale. C'est une sous-espèce de Aonyx capensis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aspect est semblable à celui de la loutre à joues blanches du Cap mais elle est de plus petite taille, a la tête et le cou moins musclé et a un pelage plus blanc que beige sur les joues.
 </t>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Leur auteur hésita à en faire une véritable espèce : Aonyx congicus (Lönnberg, 1910), ou plus simplement une sous-espèce de la loutre à joues blanches (Aonyx capensis): Aonyx capensis congicus (Lönnberg, 1910). Une étude faite en 2001 semble montrer qu'il s'agirait pourtant bien d'une espèce à part entière[3], mais les avis sont encore partagés sur le sujet[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leur auteur hésita à en faire une véritable espèce : Aonyx congicus (Lönnberg, 1910), ou plus simplement une sous-espèce de la loutre à joues blanches (Aonyx capensis): Aonyx capensis congicus (Lönnberg, 1910). Une étude faite en 2001 semble montrer qu'il s'agirait pourtant bien d'une espèce à part entière, mais les avis sont encore partagés sur le sujet.
 Si on considère Aonyx congicus comme une espèce à part, il existerait trois sous-espèces :
 Aonyx congica congica
 Aonyx congica microdon
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
